--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,105 +40,99 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>weird</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>[UNK]</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -160,121 +151,112 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>top</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>okay</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
+    <t>highly</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -757,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -804,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,49 +936,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C8">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="L8">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>14</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8484848484848485</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L9">
         <v>50</v>
       </c>
-      <c r="K9">
-        <v>0.84</v>
-      </c>
-      <c r="L9">
-        <v>42</v>
-      </c>
       <c r="M9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.7894736842105263</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1257,10 +1239,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.6551724137931034</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,16 +1307,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.6296296296296297</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
         <v>7</v>
@@ -1446,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,37 +1486,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6363636363636364</v>
+        <v>0.5625</v>
       </c>
       <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1554,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6231884057971014</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C20">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.4615384615384616</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5882352941176471</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.3636363636363636</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.3611111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1686,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.3541666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.3157894736842105</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1786,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5531914893617021</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.2542372881355932</v>
+        <v>0.2431693989071038</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1836,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.2340619307832423</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L26">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>841</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1886,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5416666666666666</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.1521739130434783</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1936,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5384615384615384</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1975,16 +1957,16 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.1481481481481481</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +1986,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5217391304347826</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.1463414634146341</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2036,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.1408450704225352</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2086,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.1311475409836066</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L31">
         <v>8</v>
@@ -2146,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,37 +2136,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4358974358974359</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>17</v>
       </c>
-      <c r="D32">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>22</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.1230769230769231</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,13 +2186,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4117647058823529</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,19 +2204,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.1111111111111111</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2236,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.09411764705882353</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2286,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3571428571428572</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2322,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.08421052631578947</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="L35">
         <v>8</v>
@@ -2346,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,163 +2336,115 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3214285714285715</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37">
+        <v>0.03148148148148148</v>
+      </c>
+      <c r="L37">
+        <v>17</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K36">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="L36">
-        <v>6</v>
-      </c>
-      <c r="M36">
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
-      <c r="D37">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>65</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37">
-        <v>0.04379562043795621</v>
-      </c>
-      <c r="L37">
-        <v>6</v>
-      </c>
-      <c r="M37">
-        <v>6</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.04040404040404041</v>
-      </c>
-      <c r="C38">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>14</v>
-      </c>
-      <c r="E38">
-        <v>0.14</v>
-      </c>
-      <c r="F38">
-        <v>0.86</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>285</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K38">
-        <v>0.03084415584415584</v>
+        <v>0.0301659125188537</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>597</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>0.02710843373493976</v>
+        <v>0.02432778489116517</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2522,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>646</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0.02639296187683285</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2548,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>332</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0.02222222222222222</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2574,111 +2508,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K42">
-        <v>0.02120141342756184</v>
-      </c>
-      <c r="L42">
-        <v>6</v>
-      </c>
-      <c r="M42">
-        <v>6</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K43">
-        <v>0.02037037037037037</v>
-      </c>
-      <c r="L43">
-        <v>11</v>
-      </c>
-      <c r="M43">
-        <v>11</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44">
-        <v>0.01612903225806452</v>
-      </c>
-      <c r="L44">
-        <v>28</v>
-      </c>
-      <c r="M44">
-        <v>28</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K45">
-        <v>0.01408450704225352</v>
-      </c>
-      <c r="L45">
-        <v>11</v>
-      </c>
-      <c r="M45">
-        <v>11</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>770</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
